--- a/data/Movies.xlsx
+++ b/data/Movies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Box Office</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -490,6 +495,11 @@
           <t xml:space="preserve">1002000000 </t>
         </is>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/movies/1.png</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -516,6 +526,11 @@
           <t xml:space="preserve">880300000 </t>
         </is>
       </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/movies/2.png</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -542,6 +557,11 @@
           <t xml:space="preserve">796700000 </t>
         </is>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/movies/3.png</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -568,6 +588,11 @@
           <t xml:space="preserve">896400000 </t>
         </is>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/movies/4.png</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -594,6 +619,11 @@
           <t xml:space="preserve">942000000 </t>
         </is>
       </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/movies/5.png</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -620,6 +650,11 @@
           <t xml:space="preserve">943200000 </t>
         </is>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/movies/6.png</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -646,6 +681,11 @@
           <t xml:space="preserve">976900000 </t>
         </is>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/movies/7.png</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -670,6 +710,11 @@
       <c r="F9" t="inlineStr">
         <is>
           <t xml:space="preserve">1342000000 </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/movies/8.png</t>
         </is>
       </c>
     </row>

--- a/data/Movies.xlsx
+++ b/data/Movies.xlsx
@@ -497,7 +497,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/movies/1.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/movies/1.png</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/movies/2.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/movies/2.png</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/movies/3.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/movies/3.png</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/movies/4.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/movies/4.png</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/movies/5.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/movies/5.png</t>
         </is>
       </c>
     </row>
@@ -652,7 +652,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/movies/6.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/movies/6.png</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/movies/7.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/movies/7.png</t>
         </is>
       </c>
     </row>
@@ -714,7 +714,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/movies/8.png</t>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/movies/8.png</t>
         </is>
       </c>
     </row>

--- a/data/Movies.xlsx
+++ b/data/Movies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>url</t>
+          <t>Url</t>
         </is>
       </c>
     </row>
@@ -715,6 +715,25 @@
       <c r="G9" t="inlineStr">
         <is>
           <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/movies/8.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>8 Movies</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://raw.githubusercontent.com/viladavi6/hp-dashboard/refs/heads/master/images/movies/0.png</t>
         </is>
       </c>
     </row>
